--- a/Báo cáo/Kiểm thử (Test case)/Test cases.xlsx
+++ b/Báo cáo/Kiểm thử (Test case)/Test cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KTLTHDT\Báo cáo\Đợt 4 - Kiểm thử\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KTLTHDT\Báo cáo\Kiểm thử (Test case)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B578A5-1FC3-47DE-B3DD-9B8C5AE1D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB85D79-8F5B-447E-868A-C5960297120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Chuyển về trang web yêu cầu trước đó</t>
   </si>
   <si>
-    <t>TeoNV, 123</t>
-  </si>
-  <si>
     <t>Quản lý giỏ hàng</t>
   </si>
   <si>
@@ -89,27 +86,9 @@
     <t>Hiển thị đúng hàng bán chạy</t>
   </si>
   <si>
-    <t>Hàng yêu thích</t>
-  </si>
-  <si>
-    <t>10 mặt hàng xem nhiều nhất</t>
-  </si>
-  <si>
-    <t>10 mặt hàng có doanh thu cao nhất</t>
-  </si>
-  <si>
-    <t>10 mặt hàng bán chạy nhất</t>
-  </si>
-  <si>
-    <t>Cột ProductDate</t>
-  </si>
-  <si>
     <t>Tổng hợp OrderDetail</t>
   </si>
   <si>
-    <t>Cột ClickCount</t>
-  </si>
-  <si>
     <t>Giao diện</t>
   </si>
   <si>
@@ -119,12 +98,6 @@
     <t>(TeoVN, 123), (TeoNV, 321)</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Đã fix</t>
-  </si>
-  <si>
     <t>Đăng ký</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>Xem chi tiết sản phẩm</t>
   </si>
   <si>
-    <t>Xem hóa đơn</t>
-  </si>
-  <si>
     <t>Theo dõi lịch sử đặt hàng</t>
   </si>
   <si>
@@ -162,6 +132,225 @@
   </si>
   <si>
     <t>Khởi tạo phiếu nhập</t>
+  </si>
+  <si>
+    <t>Username, mật khẩu sai định dạng</t>
+  </si>
+  <si>
+    <t>(hoangmail.com, 123)</t>
+  </si>
+  <si>
+    <t>(hoang@gmail.com, 123123)</t>
+  </si>
+  <si>
+    <t>Mật khẩu xác nhận sai</t>
+  </si>
+  <si>
+    <t>(123123, 123124)</t>
+  </si>
+  <si>
+    <t>Username - Email đã dc đăng ký</t>
+  </si>
+  <si>
+    <t>johnnyhoang@gmail.com</t>
+  </si>
+  <si>
+    <t>Thông báo cụ thể email đã được sử dụng</t>
+  </si>
+  <si>
+    <t>các mặt hàng bán chạy nhất</t>
+  </si>
+  <si>
+    <t>Cột CreateDate</t>
+  </si>
+  <si>
+    <t>các mặt hàng mới nhất</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng hàng ưu đãi</t>
+  </si>
+  <si>
+    <t>Cột Product.Discount</t>
+  </si>
+  <si>
+    <t>các mặt hàng giảm sâu nhất</t>
+  </si>
+  <si>
+    <t>Thêm hàng vào giỏ</t>
+  </si>
+  <si>
+    <t>Hàng được thêm vào giỏ</t>
+  </si>
+  <si>
+    <t>Xóa hàng khỏi giỏ</t>
+  </si>
+  <si>
+    <t>Hàng được xóa khỏi giỏ</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa số lượng</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm thay đổi</t>
+  </si>
+  <si>
+    <t>Nhấn nút thanh toán</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang nhập thông tin thanh toán</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin của user</t>
+  </si>
+  <si>
+    <t>Bảng User</t>
+  </si>
+  <si>
+    <t>Thông tin user được hiển thị chính xác</t>
+  </si>
+  <si>
+    <t>Địa chỉ để trống</t>
+  </si>
+  <si>
+    <t>Chọn thanh toán tiền mặt</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>Chọn thanh toán paypal</t>
+  </si>
+  <si>
+    <t>Chuyển đến cổng thanh toán của paypal</t>
+  </si>
+  <si>
+    <t>Xem chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Mật khẩu hiện tại nhập sai</t>
+  </si>
+  <si>
+    <t>(123)</t>
+  </si>
+  <si>
+    <t>Thống kê số lượng khách hàng</t>
+  </si>
+  <si>
+    <t>Thống kê tổng doanh thu</t>
+  </si>
+  <si>
+    <t>Thống kê số lượng đơn hàng</t>
+  </si>
+  <si>
+    <t>Thống kê số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Bảng Product</t>
+  </si>
+  <si>
+    <t>Bảng Order</t>
+  </si>
+  <si>
+    <t>Hiển thị tổng số lượng khách hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị tổng số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị tổng doanh thu</t>
+  </si>
+  <si>
+    <t>Hiển thị tổng số lượng đơn  hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết các sản phẩm</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Sản phẩm được xóa khỏi danh sách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa thông tin </t>
+  </si>
+  <si>
+    <t>Thông tin sản phẩm được chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Sản phẩm được thêm thành công vào CSDL</t>
+  </si>
+  <si>
+    <t>Lưu thông tin</t>
+  </si>
+  <si>
+    <t>Xem thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Thông tin sản phẩm được xuất ra chính xác</t>
+  </si>
+  <si>
+    <t>Xem danh sách đơn hàng</t>
+  </si>
+  <si>
+    <t>Xuất thành công danh sách đơn hàng</t>
+  </si>
+  <si>
+    <t>Xem thống kê đơn hàng</t>
+  </si>
+  <si>
+    <t>Xem các thống kê về tổng số đơn, đơn chờ, đơn duyệt</t>
+  </si>
+  <si>
+    <t>Duyệt đơn hàng</t>
+  </si>
+  <si>
+    <t>Đơn hàng được chuyển sang trạng thái ACCEPTED</t>
+  </si>
+  <si>
+    <t>Từ chối đơn hàng</t>
+  </si>
+  <si>
+    <t>Đơn hàng được chuyển sang trạng thái CANCELED</t>
+  </si>
+  <si>
+    <t>Xem danh sách phiếu nhập</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách phiếu nhập</t>
+  </si>
+  <si>
+    <t>Bảng ReivedNote</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách kho</t>
+  </si>
+  <si>
+    <t>Bảng Warehouse</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách kho hàng</t>
+  </si>
+  <si>
+    <t>Thêm phiếu nhập</t>
+  </si>
+  <si>
+    <t>Phiếu nhập được thêm thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Bảng orderdetail</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đơn hàng đã đặt</t>
   </si>
 </sst>
 </file>
@@ -256,7 +445,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -277,6 +466,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,18 +880,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="B2:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -725,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -736,13 +928,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -751,13 +943,13 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -766,28 +958,28 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -813,19 +1005,17 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -837,286 +1027,954 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
-        <v>12</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="B31" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>13</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <v>12</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="8">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8">
+        <v>14</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
         <v>15</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="C73" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="8">
         <v>16</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="C77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Báo cáo/Kiểm thử (Test case)/Test cases.xlsx
+++ b/Báo cáo/Kiểm thử (Test case)/Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KTLTHDT\Báo cáo\Kiểm thử (Test case)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB85D79-8F5B-447E-868A-C5960297120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CB22E-D92C-4452-BA76-F209A5D4D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -62,18 +62,12 @@
     <t>Sai username, mật khẩu</t>
   </si>
   <si>
-    <t>Đăng nhập đúng</t>
-  </si>
-  <si>
     <t>Yêu cầu nhập</t>
   </si>
   <si>
     <t>Thông báo cụ thể sai cái gì</t>
   </si>
   <si>
-    <t>Chuyển về trang web yêu cầu trước đó</t>
-  </si>
-  <si>
     <t>Quản lý giỏ hàng</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Đúng bản thiết kế</t>
   </si>
   <si>
-    <t>(TeoVN, 123), (TeoNV, 321)</t>
-  </si>
-  <si>
     <t>Đăng ký</t>
   </si>
   <si>
@@ -134,15 +125,6 @@
     <t>Khởi tạo phiếu nhập</t>
   </si>
   <si>
-    <t>Username, mật khẩu sai định dạng</t>
-  </si>
-  <si>
-    <t>(hoangmail.com, 123)</t>
-  </si>
-  <si>
-    <t>(hoang@gmail.com, 123123)</t>
-  </si>
-  <si>
     <t>Mật khẩu xác nhận sai</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>johnnyhoang@gmail.com</t>
   </si>
   <si>
-    <t>Thông báo cụ thể email đã được sử dụng</t>
-  </si>
-  <si>
     <t>các mặt hàng bán chạy nhất</t>
   </si>
   <si>
@@ -188,12 +167,6 @@
     <t>Hàng được xóa khỏi giỏ</t>
   </si>
   <si>
-    <t>Chỉnh sửa số lượng</t>
-  </si>
-  <si>
-    <t>Số lượng sản phẩm thay đổi</t>
-  </si>
-  <si>
     <t>Nhấn nút thanh toán</t>
   </si>
   <si>
@@ -351,6 +324,108 @@
   </si>
   <si>
     <t>Hiển thị danh sách đơn hàng đã đặt</t>
+  </si>
+  <si>
+    <t>Username sai định dạng</t>
+  </si>
+  <si>
+    <t>hoangmail.com</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập thông tin</t>
+  </si>
+  <si>
+    <t>Thông báo tài khoản không hợp lệ</t>
+  </si>
+  <si>
+    <t>Đăng nhập đúng - tài khoản khách hàng</t>
+  </si>
+  <si>
+    <t>(johnnyhoang@gmail, 123)</t>
+  </si>
+  <si>
+    <t>(johnnyhoang482@gmail.com, 123123)</t>
+  </si>
+  <si>
+    <t>Chuyển về trang chủ bán hàng</t>
+  </si>
+  <si>
+    <t>Đăng nhập đúng - tài khoản quản lý</t>
+  </si>
+  <si>
+    <t>(bingbang004@gmail.com, 123123)</t>
+  </si>
+  <si>
+    <t>Chuyển về trang chủ quản lý</t>
+  </si>
+  <si>
+    <t>Thông báo email sai định dạng</t>
+  </si>
+  <si>
+    <t>Nhập email sai định dạng</t>
+  </si>
+  <si>
+    <t>Thông báo sai mật khẩu xác nhận</t>
+  </si>
+  <si>
+    <t>Thông báo email đã được sử dụng</t>
+  </si>
+  <si>
+    <t>Tăng số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm tăng đến khi đạt giới hạn</t>
+  </si>
+  <si>
+    <t>Giảm số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm tăng giảm đến khi chạm 1</t>
+  </si>
+  <si>
+    <t>Thông báo sai mật khẩu hiện tại</t>
+  </si>
+  <si>
+    <t>Nhập thông tin về tên, tác giả, mô tả quá dài</t>
+  </si>
+  <si>
+    <t>Ký tự mới sẽ không được hiển thị</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm nhập chữ</t>
+  </si>
+  <si>
+    <t>Không cho phép nhập</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm nhập số âm</t>
+  </si>
+  <si>
+    <t>Không cho phép nhập dấu âm</t>
+  </si>
+  <si>
+    <t>Hai trăm</t>
+  </si>
+  <si>
+    <t>-200000</t>
+  </si>
+  <si>
+    <t>Giá nhập nhập ký tự</t>
+  </si>
+  <si>
+    <t>Không cho phép nhập dấu</t>
+  </si>
+  <si>
+    <t>Giá nhập nhập số âm</t>
+  </si>
+  <si>
+    <t>Số lượng nhập ký tự</t>
+  </si>
+  <si>
+    <t>Số lượng nhập số âm</t>
+  </si>
+  <si>
+    <t>-20</t>
   </si>
 </sst>
 </file>
@@ -414,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -437,6 +512,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -445,7 +544,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,9 +565,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,23 +989,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F80"/>
+  <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -917,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -928,13 +1037,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -943,13 +1052,13 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -958,28 +1067,28 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1003,7 +1112,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1011,970 +1120,1142 @@
       <c r="B10" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
+      <c r="C10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>2.5</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
         <v>3.5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>4.2</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
         <v>4.3</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="C24" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>5.2</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>5.3</v>
+      <c r="B27" s="10">
+        <v>5.2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
         <v>5.4</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>6.1</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
         <v>6.2</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
         <v>6.3</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <v>6.5</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>10.3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="E55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="8">
+        <v>12</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="10">
+        <v>12.1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="10">
+        <v>12.4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>12.6</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <v>13</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="8">
+        <v>14</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="10">
+        <v>14.1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10">
+        <v>14.2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="8">
+        <v>15</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
-        <v>8</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="8">
+        <v>16</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="E86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="10">
+        <v>16.2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
-        <v>10</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
-        <v>11</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
-        <v>12</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
-        <v>13</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
-        <v>14</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="10">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D92" s="3"/>
+      <c r="E92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
-        <v>15</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
-        <v>16</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F80" s="3"/>
+      <c r="F92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Báo cáo/Kiểm thử (Test case)/Test cases.xlsx
+++ b/Báo cáo/Kiểm thử (Test case)/Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KTLTHDT\Báo cáo\Kiểm thử (Test case)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDAF47-9CB1-4CC8-BD66-54B181E1D9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4B0D7B-EB56-4E1C-8FAA-BAD922459A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sửa thông tin </t>
-  </si>
-  <si>
-    <t>Lưu thông tin</t>
   </si>
   <si>
     <t>Xem thông tin sản phẩm</t>
@@ -499,6 +496,33 @@
   </si>
   <si>
     <t>Tổng hợp từ Product</t>
+  </si>
+  <si>
+    <t>Giá khuyến mãi nhập chữ</t>
+  </si>
+  <si>
+    <t>Giá khuyến mãi nhập số âm</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm thất bại</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Thông báo thêm sp thât bại</t>
+  </si>
+  <si>
+    <t>Lưu thông tin thất bại</t>
+  </si>
+  <si>
+    <t>Lưu thông tin thành công</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi</t>
+  </si>
+  <si>
+    <t>Nhập hơn 200 ký tự</t>
   </si>
 </sst>
 </file>
@@ -636,7 +660,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,15 +740,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F103"/>
+  <dimension ref="B2:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1201,13 +1220,13 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="F5" s="13">
         <v>100</v>
@@ -1218,11 +1237,11 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="13">
         <v>100</v>
@@ -1233,11 +1252,11 @@
         <v>1.4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="13">
         <v>100</v>
@@ -1248,11 +1267,11 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="13">
         <v>100</v>
@@ -1308,11 +1327,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="4">
         <v>100</v>
@@ -1323,11 +1342,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="4">
         <v>100</v>
@@ -1338,13 +1357,13 @@
         <v>2.4</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="19">
         <v>100</v>
@@ -1358,10 +1377,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="4">
         <v>100</v>
@@ -1372,13 +1391,13 @@
         <v>2.6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="F16" s="4">
         <v>100</v>
@@ -1389,13 +1408,13 @@
         <v>2.7</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="F17" s="4">
         <v>100</v>
@@ -1417,11 +1436,11 @@
         <v>3.1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="15">
         <v>100</v>
@@ -1432,11 +1451,11 @@
         <v>3.2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="15">
         <v>100</v>
@@ -1447,11 +1466,11 @@
         <v>3.3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="15">
         <v>100</v>
@@ -1462,11 +1481,11 @@
         <v>3.4</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="15">
         <v>100</v>
@@ -1477,13 +1496,13 @@
         <v>3.5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="4">
         <v>100</v>
@@ -1500,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="4">
         <v>100</v>
@@ -1511,13 +1530,13 @@
         <v>3.7</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="4">
         <v>100</v>
@@ -1528,11 +1547,11 @@
         <v>3.8</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="4">
         <v>100</v>
@@ -1588,13 +1607,13 @@
         <v>4.2</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="4">
         <v>100</v>
@@ -1605,11 +1624,11 @@
         <v>4.3</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="4">
         <v>100</v>
@@ -1620,11 +1639,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="4">
         <v>100</v>
@@ -1635,13 +1654,13 @@
         <v>4.5</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>142</v>
       </c>
       <c r="F33" s="4">
         <v>100</v>
@@ -1652,11 +1671,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="4">
         <v>100</v>
@@ -1695,13 +1714,13 @@
         <v>5.2</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="F37" s="4">
         <v>100</v>
@@ -1712,11 +1731,11 @@
         <v>5.3</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="4">
         <v>100</v>
@@ -1727,11 +1746,11 @@
         <v>5.4</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="4">
         <v>100</v>
@@ -1742,11 +1761,11 @@
         <v>5.5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40" s="4">
         <v>100</v>
@@ -1890,13 +1909,13 @@
         <v>7.2</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="F50" s="15">
         <v>100</v>
@@ -1935,13 +1954,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F53" s="15">
         <v>100</v>
@@ -1955,7 +1974,7 @@
         <v>42</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>43</v>
@@ -2020,10 +2039,10 @@
         <v>45</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F58" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="F60" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2242,7 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" s="15">
         <v>100</v>
@@ -2268,8 +2287,8 @@
       <c r="E74" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="27">
-        <v>50</v>
+      <c r="F74" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,14 +2296,14 @@
         <v>12.3</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,33 +2311,33 @@
         <v>12.4</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="F76" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>12.5</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F77" s="27">
-        <v>0</v>
+      <c r="F77" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,39 +2345,45 @@
         <v>12.6</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E78" s="11" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F78" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="7">
-        <v>13</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="B79" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>0</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D80" s="27"/>
       <c r="E80" s="11" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="F80" s="15">
         <v>100</v>
@@ -2366,106 +2391,108 @@
     </row>
     <row r="81" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="27">
-        <v>50</v>
+        <v>157</v>
+      </c>
+      <c r="F81" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F82" s="15">
+      <c r="B82" s="7">
+        <v>13</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+    </row>
+    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="E83" s="11" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F83" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F84" s="27">
-        <v>0</v>
+        <v>13.2</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="E85" s="11" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F85" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="7">
-        <v>14</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="87" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F87" s="15">
         <v>100</v>
@@ -2473,16 +2500,16 @@
     </row>
     <row r="88" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>51</v>
+        <v>153</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F88" s="15">
         <v>100</v>
@@ -2490,46 +2517,46 @@
     </row>
     <row r="89" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>51</v>
+        <v>154</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F89" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="20" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F90" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="20" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="D91" s="28"/>
+      <c r="E91" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="F91" s="15">
         <v>100</v>
@@ -2537,10 +2564,10 @@
     </row>
     <row r="92" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
@@ -2548,7 +2575,7 @@
     </row>
     <row r="93" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>14</v>
@@ -2565,16 +2592,16 @@
     </row>
     <row r="94" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F94" s="15">
         <v>100</v>
@@ -2582,144 +2609,236 @@
     </row>
     <row r="95" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <v>15.3</v>
+        <v>14.3</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F95" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="7">
-        <v>16</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F96" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
-        <v>16.100000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7">
         <v>15</v>
       </c>
-      <c r="F97" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="15">
-        <v>50</v>
-      </c>
+      <c r="C98" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
-        <v>16.3</v>
+        <v>15.1</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F99" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
-        <v>16.399999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="F100" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>100</v>
+        <v>71</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F101" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F102" s="15">
-        <v>0</v>
-      </c>
+    <row r="102" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="7">
+        <v>16</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="15"/>
+      <c r="E104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
         <v>16.7</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C109" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" s="15"/>
+      <c r="E109" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F103" s="15">
+      <c r="F109" s="15">
         <v>100</v>
       </c>
     </row>
